--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -14,24 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>GSD230808051B001</t>
-  </si>
-  <si>
-    <t>GSD230808052B001</t>
-  </si>
-  <si>
-    <t>GSD230808053B001</t>
-  </si>
-  <si>
-    <t>GSD230808054B001</t>
-  </si>
-  <si>
-    <t>GSD230808055B001</t>
-  </si>
-  <si>
-    <t>GSD230808071B001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>ZCD230921011</t>
+  </si>
+  <si>
+    <t>ZCD230921010</t>
+  </si>
+  <si>
+    <t>ZCD230921012</t>
+  </si>
+  <si>
+    <t>ZCD230921013</t>
   </si>
   <si>
     <t>1</t>
@@ -44,12 +38,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
@@ -381,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,7 +380,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -400,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -408,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -416,23 +404,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -14,18 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>ZCD230921011</t>
-  </si>
-  <si>
-    <t>ZCD230921010</t>
-  </si>
-  <si>
-    <t>ZCD230921012</t>
-  </si>
-  <si>
-    <t>ZCD230921013</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>ZCD230921014</t>
+  </si>
+  <si>
+    <t>ZCD230921015</t>
+  </si>
+  <si>
+    <t>ZCD230921016</t>
+  </si>
+  <si>
+    <t>ZCD230921017</t>
+  </si>
+  <si>
+    <t>ZCD230921018</t>
   </si>
   <si>
     <t>1</t>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -388,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -396,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -404,7 +410,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -1,67 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ZCD230921014</t>
-  </si>
-  <si>
-    <t>ZCD230921015</t>
-  </si>
-  <si>
-    <t>ZCD230921016</t>
-  </si>
-  <si>
-    <t>ZCD230921017</t>
-  </si>
-  <si>
-    <t>ZCD230921018</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -374,54 +408,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>GSD230925021B001</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD230925030B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD230925037B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD230925024B001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD230925025B001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD230925026B001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD230925027B001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD230925028B001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD230925029B001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD230925022B001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD230925023B001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD230925021B001</t>
+          <t>GSD230926056D001</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -433,126 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GSD230925030B001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSD230925037B001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GSD230925024B001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GSD230925025B001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GSD230925026B001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GSD230925027B001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GSD230925028B001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GSD230925029B001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GSD230925022B001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GSD230925023B001</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ZCD240112008</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +56,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,32 +350,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>GSD230926056D001</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>ZCD240112008</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,22 +408,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>GSD240116005B001</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240116006B001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240116007B001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240116008B001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240116009B001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240116010B001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240116011B001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240116012B001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240116013B001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240116014B001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240116015B001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240116016B001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240116017B001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240116018B001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240116019B001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSD240116020B001</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GSD240116021B001</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GSD240116022B001</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GSD240116023B001</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GSD240116024B001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GSD240116005B002</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GSD240116035P001</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GSD240116036P001</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GSD240116037P001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GSD240116038P001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GSD240116039P001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GSD240116041B001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>GSD240116005B001</t>
+          <t>ZCD240116006</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -433,318 +433,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GSD240116006B001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GSD240116007B001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GSD240116008B001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GSD240116009B001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GSD240116010B001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GSD240116011B001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GSD240116012B001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GSD240116013B001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GSD240116014B001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GSD240116015B001</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GSD240116016B001</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GSD240116017B001</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GSD240116018B001</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GSD240116019B001</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GSD240116020B001</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GSD240116021B001</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GSD240116022B001</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GSD240116023B001</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GSD240116024B001</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GSD240116005B002</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GSD240116035P001</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GSD240116036P001</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GSD240116037P001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GSD240116038P001</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GSD240116039P001</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>GSD240116041B001</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -1,34 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>FJD240117010</t>
+  </si>
+  <si>
+    <t>FJD240117011</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +62,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,32 +356,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ZCD240116006</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>FJD240117010</t>
-  </si>
-  <si>
-    <t>FJD240117011</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>GSD231219002P001</t>
+  </si>
+  <si>
+    <t>GSD231219003P001</t>
+  </si>
+  <si>
+    <t>GSD231219004P001</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,7 +374,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -376,7 +382,15 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>GSD231219002P001</t>
-  </si>
-  <si>
-    <t>GSD231219003P001</t>
-  </si>
-  <si>
-    <t>GSD231219004P001</t>
+    <t>GSD240117078D001</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -363,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -374,23 +362,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>GSD240117078D001</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,22 +408,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ZCD240130002</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/import_excel/position_in_box_lims.xlsx
+++ b/data/import_excel/position_in_box_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,180 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ZCD240130002</t>
+          <t>GSD240219054D001</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GSD240219046D001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GSD240219046D002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GSD240219047D001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSD240219048D001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GSD240219050D001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240219051D001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240219052D001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240219053D001</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240219055D001</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240219061D001</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240219062D001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240219063D001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240219065D001</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240219066D001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15</t>
         </is>
       </c>
     </row>
